--- a/Data/dfindicators - Copy.xlsx
+++ b/Data/dfindicators - Copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25524"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25525"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_132f\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="217" documentId="8_{5B714790-5D09-449C-AC43-0602D1763C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FEA5F51-BE81-4F37-AD37-3B8122F4BF64}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4156687F-412C-4F7C-A2F8-3B190681D044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="432">
   <si>
     <t>Indicator</t>
   </si>
@@ -67,12 +67,12 @@
     <t>Households and NPISHs Final consumption expenditure (current US$)</t>
   </si>
   <si>
+    <t>Final consumption expenditure (current US$)</t>
+  </si>
+  <si>
     <t>secondary</t>
   </si>
   <si>
-    <t>Final consumption expenditure (current US$)</t>
-  </si>
-  <si>
     <t>General government final consumption expenditure (current US$)</t>
   </si>
   <si>
@@ -169,12 +169,12 @@
     <t>GDP deflator (base year varies by country)</t>
   </si>
   <si>
+    <t>GDP deflator: linked series (base year varies by country)</t>
+  </si>
+  <si>
     <t>principal</t>
   </si>
   <si>
-    <t>GDP deflator: linked series (base year varies by country)</t>
-  </si>
-  <si>
     <t>Import volume index (2000 = 100)</t>
   </si>
   <si>
@@ -187,6 +187,9 @@
     <t>Fixed broadband subscriptions (per 100 people)</t>
   </si>
   <si>
+    <t>Internet</t>
+  </si>
+  <si>
     <t>Renewable internal freshwater resources per capita (cubic meters)</t>
   </si>
   <si>
@@ -412,6 +415,9 @@
     <t>ICT service exports (BoP, current US$)</t>
   </si>
   <si>
+    <t>ex</t>
+  </si>
+  <si>
     <t>Automated teller machines (ATMs) (per 100,000 adults)</t>
   </si>
   <si>
@@ -424,6 +430,9 @@
     <t>Crop production index (2014-2016 = 100)</t>
   </si>
   <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
     <t>Secondary income receipts (BoP, current US$)</t>
   </si>
   <si>
@@ -547,15 +556,24 @@
     <t>International migrant stock (% of population)</t>
   </si>
   <si>
+    <t>Migration</t>
+  </si>
+  <si>
     <t>Poverty gap at $1</t>
   </si>
   <si>
     <t>Net primary income (Net income from abroad) (current US$)</t>
   </si>
   <si>
+    <t>e</t>
+  </si>
+  <si>
     <t>Total alcohol consumption per capita (liters of pure alcohol, projected estimates, 15+ years of age)</t>
   </si>
   <si>
+    <t>A&amp;D</t>
+  </si>
+  <si>
     <t>Access to electricity (% of population)</t>
   </si>
   <si>
@@ -637,6 +655,9 @@
     <t>Researchers in R&amp;D (per million people)</t>
   </si>
   <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
     <t>Nurses and midwives (per 1,000 people)</t>
   </si>
   <si>
@@ -701,6 +722,9 @@
   </si>
   <si>
     <t>Completeness of birth registration (%)</t>
+  </si>
+  <si>
+    <t>Demoraphy</t>
   </si>
   <si>
     <t>Commercial bank branches (per 100,000 adults)</t>
@@ -1855,7 +1879,15 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFB4C6E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1878,13 +1910,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{602FDA26-B182-476C-BF17-B025EF5B31D0}" name="Table1" displayName="Table1" ref="A1:D83" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D83" xr:uid="{602FDA26-B182-476C-BF17-B025EF5B31D0}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{602FDA26-B182-476C-BF17-B025EF5B31D0}" name="Table1" displayName="Table1" ref="A1:C213" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:C213" xr:uid="{602FDA26-B182-476C-BF17-B025EF5B31D0}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{66689430-78A7-4901-8C8D-87EA64AA1EE9}" name="Indicator"/>
     <tableColumn id="2" xr3:uid="{9540FD0E-75C7-4F9E-B7E3-13D2DDB15D07}" name="Number of times repeated"/>
     <tableColumn id="3" xr3:uid="{2A41BFE7-15FD-41FE-B095-6880CEC7BE8D}" name="Type"/>
-    <tableColumn id="4" xr3:uid="{70368A3E-510D-40BC-ADF9-BFC1A378C4AE}" name="Level"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4731CEA4-D04F-4B75-968C-07B04244EE2C}" name="Table2" displayName="Table2" ref="D1:D213" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="D1:D213" xr:uid="{4731CEA4-D04F-4B75-968C-07B04244EE2C}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{DFBD6B9E-1DF4-4300-94F6-ADD2E88695BC}" name="Level"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2190,7 +2231,7 @@
   <dimension ref="A1:D404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:D57"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2225,7 +2266,9 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
@@ -2256,22 +2299,22 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>45</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3">
         <v>45</v>
@@ -2280,7 +2323,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2294,7 +2337,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2308,7 +2351,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2322,7 +2365,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2336,7 +2379,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2350,7 +2393,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2364,7 +2407,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2377,22 +2420,22 @@
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3">
-        <v>43</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2406,7 +2449,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2420,7 +2463,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2434,7 +2477,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2448,7 +2491,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2462,7 +2505,7 @@
         <v>19</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2476,7 +2519,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2490,7 +2533,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2504,7 +2547,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2517,22 +2560,22 @@
       <c r="C23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2">
+        <v>39</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="3">
-        <v>39</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2546,7 +2589,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2560,7 +2603,7 @@
         <v>19</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2574,7 +2617,7 @@
         <v>19</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2588,7 +2631,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2602,7 +2645,7 @@
         <v>22</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2616,7 +2659,7 @@
         <v>32</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2630,7 +2673,7 @@
         <v>7</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2644,7 +2687,7 @@
         <v>32</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2657,22 +2700,22 @@
       <c r="C33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="2">
+        <v>35</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="3">
-        <v>35</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2685,13 +2728,13 @@
       <c r="C35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>45</v>
+      <c r="D35" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2">
         <v>35</v>
@@ -2700,7 +2743,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2713,8 +2756,8 @@
       <c r="C37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>11</v>
+      <c r="D37" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2728,7 +2771,7 @@
         <v>32</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2742,40 +2785,40 @@
         <v>32</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>34</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>7</v>
+      <c r="C40" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="3">
+      <c r="A41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="2">
         <v>34</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>11</v>
+      <c r="C41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" s="3">
         <v>34</v>
@@ -2784,26 +2827,26 @@
         <v>32</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" s="3">
         <v>33</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" s="2">
         <v>33</v>
@@ -2811,41 +2854,41 @@
       <c r="C44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>8</v>
+      <c r="D44" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" s="2">
         <v>33</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="3">
+      <c r="A46" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="2">
         <v>33</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>11</v>
+      <c r="D46" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B47" s="3">
         <v>33</v>
@@ -2854,40 +2897,40 @@
         <v>7</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B48" s="3">
         <v>33</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B49" s="3">
         <v>32</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B50" s="3">
         <v>32</v>
@@ -2896,68 +2939,68 @@
         <v>22</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B51" s="3">
         <v>32</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B52" s="3">
         <v>32</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B53" s="2">
         <v>31</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="2">
+        <v>31</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="3">
-        <v>31</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B55" s="3">
         <v>30</v>
@@ -2966,12 +3009,12 @@
         <v>22</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B56" s="3">
         <v>30</v>
@@ -2980,82 +3023,82 @@
         <v>7</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B57" s="2">
         <v>30</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="2">
+        <v>30</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="3">
-        <v>30</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B59" s="3">
         <v>30</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B60" s="2">
         <v>30</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="2">
+        <v>30</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61" s="3">
-        <v>30</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B62" s="3">
         <v>30</v>
@@ -3064,82 +3107,82 @@
         <v>7</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B63" s="3">
         <v>30</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B64" s="3">
         <v>30</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B65" s="2">
         <v>29</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D65" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="2">
+        <v>29</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B66" s="3">
-        <v>29</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B67" s="3">
         <v>29</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B68" s="3">
         <v>29</v>
@@ -3148,12 +3191,12 @@
         <v>7</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B69" s="3">
         <v>28</v>
@@ -3162,12 +3205,12 @@
         <v>22</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B70" s="3">
         <v>28</v>
@@ -3176,12 +3219,12 @@
         <v>5</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B71" s="3">
         <v>28</v>
@@ -3190,26 +3233,26 @@
         <v>19</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B72" s="3">
         <v>28</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B73" s="3">
         <v>27</v>
@@ -3218,12 +3261,12 @@
         <v>22</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B74" s="3">
         <v>27</v>
@@ -3232,68 +3275,68 @@
         <v>32</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B75" s="3">
         <v>27</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B76" s="3">
         <v>27</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B77" s="3">
         <v>27</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B78" s="3">
         <v>26</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B79" s="3">
         <v>26</v>
@@ -3302,1182 +3345,1962 @@
         <v>7</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B80" s="3">
         <v>26</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B81" s="3">
         <v>25</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B82" s="3">
         <v>25</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D82" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B83" s="3">
+        <v>24</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B84" s="3">
+        <v>24</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B85" s="3">
+        <v>24</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B86" s="3">
+        <v>24</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87" s="3">
+        <v>24</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88" s="3">
+        <v>24</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B89" s="3">
+        <v>24</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B90" s="3">
+        <v>24</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91" s="3">
+        <v>24</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" s="3">
+        <v>23</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B93" s="3">
+        <v>23</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B94" s="2">
+        <v>23</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B95" s="2">
+        <v>23</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" s="3">
+        <v>22</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" s="3">
+        <v>22</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B98" s="3">
+        <v>22</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B99" s="3">
+        <v>22</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B100" s="3">
+        <v>22</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B101" s="3">
+        <v>22</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B102" s="3">
+        <v>22</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B103" s="3">
+        <v>22</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B104" s="3">
+        <v>21</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B105" s="3">
+        <v>21</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B106" s="3">
+        <v>21</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B107" s="3">
+        <v>21</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B108" s="3">
+        <v>21</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B109" s="3">
+        <v>21</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B110" s="3">
+        <v>21</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B111" s="3">
+        <v>21</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B112" s="3">
+        <v>21</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B113" s="3">
+        <v>20</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B114" s="3">
+        <v>20</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B115" s="3">
+        <v>20</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B116" s="2">
+        <v>20</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B117" s="3">
+        <v>20</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B118" s="3">
+        <v>20</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B119" s="3">
+        <v>19</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B120" s="3">
+        <v>19</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B121" s="3">
+        <v>19</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B122" s="3">
+        <v>19</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B123" s="3">
+        <v>19</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B124" s="3">
+        <v>19</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B125" s="2">
+        <v>18</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B126" s="3">
+        <v>18</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B127" s="3">
+        <v>18</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B128" s="3">
+        <v>18</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B129" s="3">
+        <v>18</v>
+      </c>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B130" s="3">
+        <v>18</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B131" s="3">
+        <v>18</v>
+      </c>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B132" s="3">
+        <v>18</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B133" s="3">
+        <v>18</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B134" s="3">
+        <v>18</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B135" s="3">
+        <v>18</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B136" s="3">
+        <v>18</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B137" s="3">
+        <v>18</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B138" s="3">
+        <v>17</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B139" s="3">
+        <v>17</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B140" s="3">
+        <v>17</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B141" s="3">
+        <v>17</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B142" s="3">
+        <v>17</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B143" s="3">
+        <v>17</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B144" s="3">
+        <v>17</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B145" s="3">
+        <v>17</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B146" s="2">
+        <v>17</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B147" s="3">
+        <v>17</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B148" s="3">
+        <v>17</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B149" s="3">
+        <v>17</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B150" s="3">
+        <v>16</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B151" s="3">
+        <v>16</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B152" s="3">
+        <v>16</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B153" s="3">
+        <v>16</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B154" s="2">
+        <v>16</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B155" s="2">
+        <v>16</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B156" s="3">
+        <v>16</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B157" s="3">
+        <v>15</v>
+      </c>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B158" s="3">
+        <v>15</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B159" s="3">
+        <v>15</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B160" s="3">
+        <v>15</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B161" s="3">
+        <v>15</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B162" s="3">
+        <v>15</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B163" s="3">
+        <v>15</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B164" s="3">
+        <v>15</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B165" s="3">
+        <v>14</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B166" s="3">
+        <v>14</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B167" s="2">
+        <v>14</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B168" s="3">
+        <v>13</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B169" s="3">
+        <v>13</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B170" s="2">
+        <v>13</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B171" s="3">
+        <v>13</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B172" s="3">
+        <v>13</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B173" s="3">
+        <v>13</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B174" s="3">
+        <v>13</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B175" s="3">
+        <v>13</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B176" s="3">
+        <v>13</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B177" s="3">
+        <v>13</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B178" s="3">
+        <v>13</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B179" s="2">
+        <v>13</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B180" s="3">
+        <v>13</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B181" s="3">
+        <v>13</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B182" s="3">
+        <v>13</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B183" s="3">
+        <v>12</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B184" s="3">
+        <v>12</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B185" s="3">
+        <v>12</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B186" s="3">
+        <v>12</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B187" s="3">
+        <v>12</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B188" s="3">
+        <v>12</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B189" s="3">
+        <v>12</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B190" s="3">
+        <v>12</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B191" s="3">
+        <v>12</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B192" s="3">
+        <v>12</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B193" s="3">
+        <v>12</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B194" s="3">
+        <v>12</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B195" s="3">
+        <v>12</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B196" s="3">
+        <v>12</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B197" s="3">
+        <v>12</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B198" s="3">
+        <v>12</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B199" s="3">
+        <v>12</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B200" s="3">
+        <v>12</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B201" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
-        <v>102</v>
-      </c>
-      <c r="B83">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
-        <v>103</v>
-      </c>
-      <c r="B84">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>104</v>
-      </c>
-      <c r="B85">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>105</v>
-      </c>
-      <c r="B86">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
-        <v>106</v>
-      </c>
-      <c r="B87">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>107</v>
-      </c>
-      <c r="B88">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
-        <v>108</v>
-      </c>
-      <c r="B89">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
-        <v>109</v>
-      </c>
-      <c r="B90">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
-        <v>110</v>
-      </c>
-      <c r="B91">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
-        <v>111</v>
-      </c>
-      <c r="B92">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
-        <v>112</v>
-      </c>
-      <c r="B93">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
-        <v>113</v>
-      </c>
-      <c r="B94">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
-        <v>114</v>
-      </c>
-      <c r="B95">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
-        <v>115</v>
-      </c>
-      <c r="B96">
+      <c r="C201" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B202" s="3">
+        <v>11</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B203" s="3">
+        <v>11</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B204" s="3">
+        <v>11</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B205" s="3">
+        <v>11</v>
+      </c>
+      <c r="C205" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>116</v>
-      </c>
-      <c r="B97">
+      <c r="D205" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B206" s="2">
+        <v>11</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>117</v>
-      </c>
-      <c r="B98">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>118</v>
-      </c>
-      <c r="B99">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>119</v>
-      </c>
-      <c r="B100">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>120</v>
-      </c>
-      <c r="B101">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>121</v>
-      </c>
-      <c r="B102">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>122</v>
-      </c>
-      <c r="B103">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>123</v>
-      </c>
-      <c r="B104">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>124</v>
-      </c>
-      <c r="B105">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>125</v>
-      </c>
-      <c r="B106">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>126</v>
-      </c>
-      <c r="B107">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>127</v>
-      </c>
-      <c r="B108">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>128</v>
-      </c>
-      <c r="B109">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>129</v>
-      </c>
-      <c r="B110">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>130</v>
-      </c>
-      <c r="B111">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>131</v>
-      </c>
-      <c r="B112">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>132</v>
-      </c>
-      <c r="B113">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>133</v>
-      </c>
-      <c r="B114">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>134</v>
-      </c>
-      <c r="B115">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>135</v>
-      </c>
-      <c r="B116">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>136</v>
-      </c>
-      <c r="B117">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>137</v>
-      </c>
-      <c r="B118">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>138</v>
-      </c>
-      <c r="B119">
+      <c r="D206" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B207" s="3">
+        <v>11</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B208" s="3">
+        <v>11</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B209" s="3">
+        <v>11</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B210" s="3">
+        <v>11</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B211" s="3">
+        <v>11</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B212" s="3">
+        <v>11</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B213" s="3">
+        <v>11</v>
+      </c>
+      <c r="C213" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>139</v>
-      </c>
-      <c r="B120">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>140</v>
-      </c>
-      <c r="B121">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>141</v>
-      </c>
-      <c r="B122">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>142</v>
-      </c>
-      <c r="B123">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>143</v>
-      </c>
-      <c r="B124">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>144</v>
-      </c>
-      <c r="B125">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>145</v>
-      </c>
-      <c r="B126">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
-        <v>146</v>
-      </c>
-      <c r="B127">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>147</v>
-      </c>
-      <c r="B128">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>148</v>
-      </c>
-      <c r="B129">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>149</v>
-      </c>
-      <c r="B130">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>150</v>
-      </c>
-      <c r="B131">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
-        <v>151</v>
-      </c>
-      <c r="B132">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
-        <v>152</v>
-      </c>
-      <c r="B133">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
-        <v>153</v>
-      </c>
-      <c r="B134">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>154</v>
-      </c>
-      <c r="B135">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>155</v>
-      </c>
-      <c r="B136">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
-        <v>156</v>
-      </c>
-      <c r="B137">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
-        <v>157</v>
-      </c>
-      <c r="B138">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
-        <v>158</v>
-      </c>
-      <c r="B139">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
-        <v>159</v>
-      </c>
-      <c r="B140">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
-        <v>160</v>
-      </c>
-      <c r="B141">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
-        <v>161</v>
-      </c>
-      <c r="B142">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
-        <v>162</v>
-      </c>
-      <c r="B143">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
-        <v>163</v>
-      </c>
-      <c r="B144">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
-        <v>164</v>
-      </c>
-      <c r="B145">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
-        <v>165</v>
-      </c>
-      <c r="B146">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
-        <v>166</v>
-      </c>
-      <c r="B147">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
-        <v>167</v>
-      </c>
-      <c r="B148">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
-        <v>168</v>
-      </c>
-      <c r="B149">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
-        <v>169</v>
-      </c>
-      <c r="B150">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
-        <v>170</v>
-      </c>
-      <c r="B151">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
-        <v>171</v>
-      </c>
-      <c r="B152">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
-        <v>172</v>
-      </c>
-      <c r="B153">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
-        <v>173</v>
-      </c>
-      <c r="B154">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
-        <v>174</v>
-      </c>
-      <c r="B155">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
-        <v>175</v>
-      </c>
-      <c r="B156">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
-        <v>176</v>
-      </c>
-      <c r="B157">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
-        <v>177</v>
-      </c>
-      <c r="B158">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
-        <v>178</v>
-      </c>
-      <c r="B159">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
-        <v>179</v>
-      </c>
-      <c r="B160">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
-        <v>180</v>
-      </c>
-      <c r="B161">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="s">
-        <v>181</v>
-      </c>
-      <c r="B162">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
-        <v>182</v>
-      </c>
-      <c r="B163">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" t="s">
-        <v>183</v>
-      </c>
-      <c r="B164">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
-        <v>184</v>
-      </c>
-      <c r="B165">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="s">
-        <v>185</v>
-      </c>
-      <c r="B166">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="s">
-        <v>186</v>
-      </c>
-      <c r="B167">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" t="s">
-        <v>187</v>
-      </c>
-      <c r="B168">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" t="s">
-        <v>188</v>
-      </c>
-      <c r="B169">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" t="s">
-        <v>189</v>
-      </c>
-      <c r="B170">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" t="s">
-        <v>190</v>
-      </c>
-      <c r="B171">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" t="s">
-        <v>191</v>
-      </c>
-      <c r="B172">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" t="s">
-        <v>192</v>
-      </c>
-      <c r="B173">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="s">
-        <v>193</v>
-      </c>
-      <c r="B174">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" t="s">
-        <v>194</v>
-      </c>
-      <c r="B175">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" t="s">
-        <v>195</v>
-      </c>
-      <c r="B176">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" t="s">
-        <v>196</v>
-      </c>
-      <c r="B177">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" t="s">
-        <v>197</v>
-      </c>
-      <c r="B178">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" t="s">
-        <v>198</v>
-      </c>
-      <c r="B179">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" t="s">
-        <v>199</v>
-      </c>
-      <c r="B180">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="s">
-        <v>200</v>
-      </c>
-      <c r="B181">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" t="s">
-        <v>201</v>
-      </c>
-      <c r="B182">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" t="s">
-        <v>202</v>
-      </c>
-      <c r="B183">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="s">
-        <v>203</v>
-      </c>
-      <c r="B184">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
-        <v>204</v>
-      </c>
-      <c r="B185">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" t="s">
-        <v>205</v>
-      </c>
-      <c r="B186">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" t="s">
-        <v>206</v>
-      </c>
-      <c r="B187">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" t="s">
-        <v>207</v>
-      </c>
-      <c r="B188">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="s">
-        <v>208</v>
-      </c>
-      <c r="B189">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" t="s">
-        <v>209</v>
-      </c>
-      <c r="B190">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" t="s">
-        <v>210</v>
-      </c>
-      <c r="B191">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" t="s">
-        <v>211</v>
-      </c>
-      <c r="B192">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" t="s">
-        <v>212</v>
-      </c>
-      <c r="B193">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" t="s">
-        <v>213</v>
-      </c>
-      <c r="B194">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" t="s">
-        <v>214</v>
-      </c>
-      <c r="B195">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" t="s">
-        <v>215</v>
-      </c>
-      <c r="B196">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" t="s">
-        <v>216</v>
-      </c>
-      <c r="B197">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" t="s">
-        <v>217</v>
-      </c>
-      <c r="B198">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" t="s">
-        <v>218</v>
-      </c>
-      <c r="B199">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" t="s">
-        <v>219</v>
-      </c>
-      <c r="B200">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" t="s">
-        <v>220</v>
-      </c>
-      <c r="B201">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" t="s">
-        <v>221</v>
-      </c>
-      <c r="B202">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
-        <v>222</v>
-      </c>
-      <c r="B203">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" t="s">
-        <v>223</v>
-      </c>
-      <c r="B204">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" t="s">
-        <v>224</v>
-      </c>
-      <c r="B205">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" t="s">
-        <v>225</v>
-      </c>
-      <c r="B206">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" t="s">
-        <v>226</v>
-      </c>
-      <c r="B207">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" t="s">
-        <v>227</v>
-      </c>
-      <c r="B208">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" t="s">
-        <v>228</v>
-      </c>
-      <c r="B209">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" t="s">
-        <v>229</v>
-      </c>
-      <c r="B210">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" t="s">
-        <v>230</v>
-      </c>
-      <c r="B211">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" t="s">
-        <v>231</v>
-      </c>
-      <c r="B212">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" t="s">
-        <v>232</v>
-      </c>
-      <c r="B213">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
+      <c r="D213" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B214">
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B215">
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B216">
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B217">
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B218">
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B219">
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B220">
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B221">
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B222">
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B223">
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B224">
         <v>10</v>
@@ -4485,7 +5308,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B225">
         <v>10</v>
@@ -4493,7 +5316,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B226">
         <v>10</v>
@@ -4501,7 +5324,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B227">
         <v>10</v>
@@ -4509,7 +5332,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B228">
         <v>10</v>
@@ -4517,7 +5340,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B229">
         <v>9</v>
@@ -4525,7 +5348,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B230">
         <v>9</v>
@@ -4533,7 +5356,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B231">
         <v>9</v>
@@ -4541,7 +5364,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B232">
         <v>9</v>
@@ -4549,7 +5372,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B233">
         <v>9</v>
@@ -4557,7 +5380,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B234">
         <v>9</v>
@@ -4565,7 +5388,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B235">
         <v>9</v>
@@ -4573,7 +5396,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B236">
         <v>9</v>
@@ -4581,7 +5404,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B237">
         <v>9</v>
@@ -4589,7 +5412,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B238">
         <v>9</v>
@@ -4597,7 +5420,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B239">
         <v>9</v>
@@ -4605,7 +5428,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B240">
         <v>9</v>
@@ -4613,7 +5436,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B241">
         <v>9</v>
@@ -4621,7 +5444,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B242">
         <v>9</v>
@@ -4629,7 +5452,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B243">
         <v>9</v>
@@ -4637,7 +5460,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B244">
         <v>9</v>
@@ -4645,7 +5468,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B245">
         <v>9</v>
@@ -4653,7 +5476,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B246">
         <v>9</v>
@@ -4661,7 +5484,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B247">
         <v>9</v>
@@ -4669,7 +5492,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B248">
         <v>9</v>
@@ -4677,7 +5500,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B249">
         <v>9</v>
@@ -4685,7 +5508,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B250">
         <v>8</v>
@@ -4693,7 +5516,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B251">
         <v>8</v>
@@ -4701,7 +5524,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B252">
         <v>8</v>
@@ -4709,7 +5532,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B253">
         <v>8</v>
@@ -4717,7 +5540,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B254">
         <v>8</v>
@@ -4725,7 +5548,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B255">
         <v>8</v>
@@ -4733,7 +5556,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B256">
         <v>8</v>
@@ -4741,7 +5564,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B257">
         <v>8</v>
@@ -4749,7 +5572,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B258">
         <v>8</v>
@@ -4757,7 +5580,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B259">
         <v>8</v>
@@ -4765,7 +5588,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B260">
         <v>8</v>
@@ -4773,7 +5596,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B261">
         <v>8</v>
@@ -4781,7 +5604,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B262">
         <v>8</v>
@@ -4789,7 +5612,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B263">
         <v>8</v>
@@ -4797,7 +5620,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B264">
         <v>8</v>
@@ -4805,7 +5628,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B265">
         <v>8</v>
@@ -4813,7 +5636,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B266">
         <v>7</v>
@@ -4821,7 +5644,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B267">
         <v>7</v>
@@ -4829,7 +5652,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B268">
         <v>7</v>
@@ -4837,7 +5660,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B269">
         <v>7</v>
@@ -4845,7 +5668,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B270">
         <v>7</v>
@@ -4853,7 +5676,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B271">
         <v>7</v>
@@ -4861,7 +5684,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B272">
         <v>7</v>
@@ -4869,7 +5692,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B273">
         <v>7</v>
@@ -4877,7 +5700,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B274">
         <v>7</v>
@@ -4885,7 +5708,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B275">
         <v>7</v>
@@ -4893,7 +5716,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B276">
         <v>7</v>
@@ -4901,7 +5724,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B277">
         <v>7</v>
@@ -4909,7 +5732,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B278">
         <v>7</v>
@@ -4917,7 +5740,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B279">
         <v>7</v>
@@ -4925,7 +5748,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B280">
         <v>6</v>
@@ -4933,7 +5756,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B281">
         <v>6</v>
@@ -4941,7 +5764,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B282">
         <v>6</v>
@@ -4949,7 +5772,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B283">
         <v>6</v>
@@ -4957,7 +5780,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B284">
         <v>6</v>
@@ -4965,7 +5788,7 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B285">
         <v>6</v>
@@ -4973,7 +5796,7 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B286">
         <v>6</v>
@@ -4981,7 +5804,7 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B287">
         <v>6</v>
@@ -4989,7 +5812,7 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B288">
         <v>6</v>
@@ -4997,7 +5820,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B289">
         <v>6</v>
@@ -5005,7 +5828,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B290">
         <v>6</v>
@@ -5013,7 +5836,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B291">
         <v>6</v>
@@ -5021,7 +5844,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B292">
         <v>6</v>
@@ -5029,7 +5852,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B293">
         <v>6</v>
@@ -5037,7 +5860,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B294">
         <v>6</v>
@@ -5045,7 +5868,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B295">
         <v>5</v>
@@ -5053,7 +5876,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B296">
         <v>5</v>
@@ -5061,7 +5884,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B297">
         <v>5</v>
@@ -5069,7 +5892,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B298">
         <v>5</v>
@@ -5077,7 +5900,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B299">
         <v>5</v>
@@ -5085,7 +5908,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B300">
         <v>5</v>
@@ -5093,7 +5916,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B301">
         <v>5</v>
@@ -5101,7 +5924,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B302">
         <v>5</v>
@@ -5109,7 +5932,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B303">
         <v>5</v>
@@ -5117,7 +5940,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B304">
         <v>5</v>
@@ -5125,7 +5948,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B305">
         <v>5</v>
@@ -5133,7 +5956,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B306">
         <v>5</v>
@@ -5141,7 +5964,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B307">
         <v>5</v>
@@ -5149,7 +5972,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B308">
         <v>5</v>
@@ -5157,7 +5980,7 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B309">
         <v>5</v>
@@ -5165,7 +5988,7 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B310">
         <v>5</v>
@@ -5173,7 +5996,7 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B311">
         <v>5</v>
@@ -5181,7 +6004,7 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B312">
         <v>5</v>
@@ -5189,7 +6012,7 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B313">
         <v>5</v>
@@ -5197,7 +6020,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B314">
         <v>5</v>
@@ -5205,7 +6028,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B315">
         <v>5</v>
@@ -5213,7 +6036,7 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B316">
         <v>5</v>
@@ -5221,7 +6044,7 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B317">
         <v>4</v>
@@ -5229,7 +6052,7 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B318">
         <v>4</v>
@@ -5237,7 +6060,7 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B319">
         <v>4</v>
@@ -5245,7 +6068,7 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B320">
         <v>4</v>
@@ -5253,7 +6076,7 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B321">
         <v>4</v>
@@ -5261,7 +6084,7 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B322">
         <v>4</v>
@@ -5269,7 +6092,7 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B323">
         <v>4</v>
@@ -5277,7 +6100,7 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B324">
         <v>4</v>
@@ -5285,7 +6108,7 @@
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B325">
         <v>4</v>
@@ -5293,7 +6116,7 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B326">
         <v>4</v>
@@ -5301,7 +6124,7 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B327">
         <v>4</v>
@@ -5309,7 +6132,7 @@
     </row>
     <row r="328" spans="1:2">
       <c r="A328" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B328">
         <v>4</v>
@@ -5317,7 +6140,7 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B329">
         <v>4</v>
@@ -5325,7 +6148,7 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B330">
         <v>4</v>
@@ -5333,7 +6156,7 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B331">
         <v>4</v>
@@ -5341,7 +6164,7 @@
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B332">
         <v>4</v>
@@ -5349,7 +6172,7 @@
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B333">
         <v>4</v>
@@ -5357,7 +6180,7 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B334">
         <v>3</v>
@@ -5365,7 +6188,7 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B335">
         <v>3</v>
@@ -5373,7 +6196,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B336">
         <v>3</v>
@@ -5381,7 +6204,7 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B337">
         <v>3</v>
@@ -5389,7 +6212,7 @@
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B338">
         <v>3</v>
@@ -5397,7 +6220,7 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B339">
         <v>3</v>
@@ -5405,7 +6228,7 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B340">
         <v>3</v>
@@ -5413,7 +6236,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B341">
         <v>3</v>
@@ -5421,7 +6244,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B342">
         <v>3</v>
@@ -5429,7 +6252,7 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B343">
         <v>3</v>
@@ -5437,7 +6260,7 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B344">
         <v>3</v>
@@ -5445,7 +6268,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B345">
         <v>3</v>
@@ -5453,7 +6276,7 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B346">
         <v>3</v>
@@ -5461,7 +6284,7 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B347">
         <v>3</v>
@@ -5469,7 +6292,7 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B348">
         <v>3</v>
@@ -5477,7 +6300,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B349">
         <v>3</v>
@@ -5485,7 +6308,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B350">
         <v>3</v>
@@ -5493,7 +6316,7 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B351">
         <v>3</v>
@@ -5501,7 +6324,7 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B352">
         <v>3</v>
@@ -5509,7 +6332,7 @@
     </row>
     <row r="353" spans="1:2">
       <c r="A353" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B353">
         <v>3</v>
@@ -5517,7 +6340,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B354">
         <v>2</v>
@@ -5525,7 +6348,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B355">
         <v>2</v>
@@ -5533,7 +6356,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B356">
         <v>2</v>
@@ -5541,7 +6364,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B357">
         <v>2</v>
@@ -5549,7 +6372,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B358">
         <v>2</v>
@@ -5557,7 +6380,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B359">
         <v>2</v>
@@ -5565,7 +6388,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B360">
         <v>2</v>
@@ -5573,7 +6396,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B361">
         <v>2</v>
@@ -5581,7 +6404,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B362">
         <v>2</v>
@@ -5589,7 +6412,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -5597,7 +6420,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -5605,7 +6428,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B365">
         <v>2</v>
@@ -5613,7 +6436,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B366">
         <v>2</v>
@@ -5621,7 +6444,7 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B367">
         <v>2</v>
@@ -5629,7 +6452,7 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B368">
         <v>2</v>
@@ -5637,7 +6460,7 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B369">
         <v>2</v>
@@ -5645,7 +6468,7 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B370">
         <v>2</v>
@@ -5653,7 +6476,7 @@
     </row>
     <row r="371" spans="1:2">
       <c r="A371" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="B371">
         <v>2</v>
@@ -5661,7 +6484,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B372">
         <v>2</v>
@@ -5669,7 +6492,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B373">
         <v>2</v>
@@ -5677,7 +6500,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B374">
         <v>2</v>
@@ -5685,7 +6508,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B375">
         <v>2</v>
@@ -5693,7 +6516,7 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B376">
         <v>2</v>
@@ -5701,7 +6524,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B377">
         <v>2</v>
@@ -5709,7 +6532,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -5717,7 +6540,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B379">
         <v>1</v>
@@ -5725,7 +6548,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="B380">
         <v>1</v>
@@ -5733,7 +6556,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B381">
         <v>1</v>
@@ -5741,7 +6564,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B382">
         <v>1</v>
@@ -5749,7 +6572,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B383">
         <v>1</v>
@@ -5757,7 +6580,7 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B384">
         <v>1</v>
@@ -5765,7 +6588,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -5773,7 +6596,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B386">
         <v>1</v>
@@ -5781,7 +6604,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -5789,7 +6612,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -5797,7 +6620,7 @@
     </row>
     <row r="389" spans="1:2">
       <c r="A389" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B389">
         <v>1</v>
@@ -5805,7 +6628,7 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B390">
         <v>1</v>
@@ -5813,7 +6636,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -5821,7 +6644,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B392">
         <v>1</v>
@@ -5829,7 +6652,7 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B393">
         <v>1</v>
@@ -5837,7 +6660,7 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -5845,7 +6668,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -5853,7 +6676,7 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B396">
         <v>1</v>
@@ -5861,7 +6684,7 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B397">
         <v>1</v>
@@ -5869,7 +6692,7 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="B398">
         <v>1</v>
@@ -5877,7 +6700,7 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -5885,7 +6708,7 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B400">
         <v>1</v>
@@ -5893,7 +6716,7 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="B401">
         <v>1</v>
@@ -5901,7 +6724,7 @@
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="B402">
         <v>1</v>
@@ -5909,7 +6732,7 @@
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="B403">
         <v>1</v>
@@ -5917,7 +6740,7 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B404">
         <v>1</v>
@@ -5925,8 +6748,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Data/dfindicators - Copy.xlsx
+++ b/Data/dfindicators - Copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_132f\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4156687F-412C-4F7C-A2F8-3B190681D044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FA73E22-2D82-4CD2-914E-7263F351C49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="239">
   <si>
     <t>Indicator</t>
   </si>
@@ -415,9 +415,6 @@
     <t>ICT service exports (BoP, current US$)</t>
   </si>
   <si>
-    <t>ex</t>
-  </si>
-  <si>
     <t>Automated teller machines (ATMs) (per 100,000 adults)</t>
   </si>
   <si>
@@ -565,9 +562,6 @@
     <t>Net primary income (Net income from abroad) (current US$)</t>
   </si>
   <si>
-    <t>e</t>
-  </si>
-  <si>
     <t>Total alcohol consumption per capita (liters of pure alcohol, projected estimates, 15+ years of age)</t>
   </si>
   <si>
@@ -755,579 +749,6 @@
   </si>
   <si>
     <t>Merchandise imports from low- and middle-income economies in South Asia (% of total merchandise imports)</t>
-  </si>
-  <si>
-    <t>Domestic general government health expenditure (% of GDP)</t>
-  </si>
-  <si>
-    <t>Agricultural methane emissions (% of total)</t>
-  </si>
-  <si>
-    <t>Domestic general government health expenditure (% of general government expenditure)</t>
-  </si>
-  <si>
-    <t>Cereal production (metric tons)</t>
-  </si>
-  <si>
-    <t>Merchandise exports to high-income economies (% of total merchandise exports)</t>
-  </si>
-  <si>
-    <t>Liner shipping connectivity index (maximum value in 2004 = 100)</t>
-  </si>
-  <si>
-    <t>Gini index</t>
-  </si>
-  <si>
-    <t>Pump price for diesel fuel (US$ per liter)</t>
-  </si>
-  <si>
-    <t>Proportion of population spending more than 25% of household consumption or income on out-of-pocket health care expenditure (%)</t>
-  </si>
-  <si>
-    <t>Income share held by highest 10%</t>
-  </si>
-  <si>
-    <t>Income share held by lowest 10%</t>
-  </si>
-  <si>
-    <t>Firms expected to give gifts in meetings with tax officials (% of firms)</t>
-  </si>
-  <si>
-    <t>Proportion of people living below 50 percent of median income (%)</t>
-  </si>
-  <si>
-    <t>Proportion of population pushed below the $3</t>
-  </si>
-  <si>
-    <t>New businesses registered (number)</t>
-  </si>
-  <si>
-    <t>CO2 emissions from solid fuel consumption (kt)</t>
-  </si>
-  <si>
-    <t>Electricity production from natural gas sources (% of total)</t>
-  </si>
-  <si>
-    <t>Adjusted savings: energy depletion (current US$)</t>
-  </si>
-  <si>
-    <t>Rail lines (total route-km)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Net migration</t>
-  </si>
-  <si>
-    <t>Out-of-pocket expenditure (% of current health expenditure)</t>
-  </si>
-  <si>
-    <t>Income share held by fourth 20%</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business (number)</t>
-  </si>
-  <si>
-    <t>Income share held by highest 20%</t>
-  </si>
-  <si>
-    <t>Merchandise imports from low- and middle-income economies in Europe &amp; Central Asia (% of total merchandise imports)</t>
-  </si>
-  <si>
-    <t>Electricity production from oil sources (% of total)</t>
-  </si>
-  <si>
-    <t>Energy related methane emissions (% of total)</t>
-  </si>
-  <si>
-    <t>Income share held by lowest 20%</t>
-  </si>
-  <si>
-    <t>Domestic general government health expenditure (% of current health expenditure)</t>
-  </si>
-  <si>
-    <t>Proportion of population pushed below the $1</t>
-  </si>
-  <si>
-    <t>Industry (including construction), value added (% of GDP)</t>
-  </si>
-  <si>
-    <t>Average time to clear exports through customs (days)</t>
-  </si>
-  <si>
-    <t>CO2 emissions from gaseous fuel consumption (% of total)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions</t>
-  </si>
-  <si>
-    <t>Research and development expenditure (% of GDP)</t>
-  </si>
-  <si>
-    <t>Population living in areas where elevation is below 5 meters (% of total population)</t>
-  </si>
-  <si>
-    <t>CO2 intensity (kg per kg of oil equivalent energy use)</t>
-  </si>
-  <si>
-    <t>DEC alternative conversion factor (LCU per US$)</t>
-  </si>
-  <si>
-    <t>Pump price for gasoline (US$ per liter)</t>
-  </si>
-  <si>
-    <t>Rural population living in areas where elevation is below 5 meters (% of total population)</t>
-  </si>
-  <si>
-    <t>Armed forces personnel (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Renewable electricity output (% of total electricity output)</t>
-  </si>
-  <si>
-    <t>Mortality rate attributed to unintentional poisoning (per 100,000 population)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Income share held by second 20%</t>
-  </si>
-  <si>
-    <t>Income share held by third 20%</t>
-  </si>
-  <si>
-    <t>Increase in poverty gap at $1</t>
-  </si>
-  <si>
-    <t>Firms with female participation in ownership (% of firms)</t>
-  </si>
-  <si>
-    <t>Individuals using the Internet (% of population)</t>
-  </si>
-  <si>
-    <t>Urban population living in areas where elevation is below 5 meters (% of total population)</t>
-  </si>
-  <si>
-    <t>SF6 gas emissions (thousand metric tons of CO2 equivalent)</t>
-  </si>
-  <si>
-    <t>External balance on goods and services (current US$)</t>
-  </si>
-  <si>
-    <t>Alternative and nuclear energy (% of total energy use)</t>
-  </si>
-  <si>
-    <t>Fossil fuel energy consumption (% of total)</t>
-  </si>
-  <si>
-    <t>Adolescents out of school (% of lower secondary school age)</t>
-  </si>
-  <si>
-    <t>Children out of school (% of primary school age)</t>
-  </si>
-  <si>
-    <t>PFC gas emissions (thousand metric tons of CO2 equivalent)</t>
-  </si>
-  <si>
-    <t>External health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Statistical performance indicators (SPI): Pillar 3 data products score  (scale 0-100)</t>
-  </si>
-  <si>
-    <t>New business density (new registrations per 1,000 people ages 15-64)</t>
-  </si>
-  <si>
-    <t>Fertilizer consumption (kilograms per hectare of arable land)</t>
-  </si>
-  <si>
-    <t>Official exchange rate (LCU per US$, period average)</t>
-  </si>
-  <si>
-    <t>Nitrous oxide emissions in energy sector (% of total)</t>
-  </si>
-  <si>
-    <t>Refugee population by country or territory of origin</t>
-  </si>
-  <si>
-    <t>Medium and high-tech exports (% manufactured exports)</t>
-  </si>
-  <si>
-    <t>Electricity production from hydroelectric sources (% of total)</t>
-  </si>
-  <si>
-    <t>Domestic private health expenditure (% of current health expenditure)</t>
-  </si>
-  <si>
-    <t>Net trade in goods and services (BoP, current US$)</t>
-  </si>
-  <si>
-    <t>Statistical performance indicators (SPI): Pillar 1 data use score (scale 0-100)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education (% of total labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>ICT goods exports (% of total goods exports)</t>
-  </si>
-  <si>
-    <t>Refugee population by country or territory of asylum</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Public credit registry coverage (% of adults)</t>
-  </si>
-  <si>
-    <t>Fertilizer consumption (% of fertilizer production)</t>
-  </si>
-  <si>
-    <t>ICT goods imports (% total goods imports)</t>
-  </si>
-  <si>
-    <t>ICT service exports (% of service exports, BoP)</t>
-  </si>
-  <si>
-    <t>Merchandise exports to low- and middle-income economies in South Asia (% of total merchandise exports)</t>
-  </si>
-  <si>
-    <t>Merchandise imports from low- and middle-income economies in Latin America &amp; the Caribbean (% of total merchandise imports)</t>
-  </si>
-  <si>
-    <t>Private credit bureau coverage (% of adults)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education (% of total working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>High-technology exports (current US$)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school (%)</t>
-  </si>
-  <si>
-    <t>Transport services (% of service imports, BoP)</t>
-  </si>
-  <si>
-    <t>Transport services (% of service exports, BoP)</t>
-  </si>
-  <si>
-    <t>CO2 emissions from liquid fuel consumption (% of total)</t>
-  </si>
-  <si>
-    <t>Land under cereal production (hectares)</t>
-  </si>
-  <si>
-    <t>Food exports (% of merchandise exports)</t>
-  </si>
-  <si>
-    <t>Deposit interest rate (%)</t>
-  </si>
-  <si>
-    <t>CO2 emissions from solid fuel consumption (% of total)</t>
-  </si>
-  <si>
-    <t>Military expenditure (% of general government expenditure)</t>
-  </si>
-  <si>
-    <t>Agricultural raw materials exports (% of merchandise exports)</t>
-  </si>
-  <si>
-    <t>Logistics performance index: Ease of arranging competitively priced shipments (1=low to 5=high)</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Merchandise exports to low- and middle-income economies in Latin America &amp; the Caribbean (% of total merchandise exports)</t>
-  </si>
-  <si>
-    <t>Merchandise trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Exports of goods and services (% of GDP)</t>
-  </si>
-  <si>
-    <t>Merchandise exports to low- and middle-income economies in Europe &amp; Central Asia (% of total merchandise exports)</t>
-  </si>
-  <si>
-    <t>Total reserves in months of imports</t>
-  </si>
-  <si>
-    <t>Time to prepare and pay taxes (hours)</t>
-  </si>
-  <si>
-    <t>Imports of goods and services (% of GDP)</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Logistics performance index: Competence and quality of logistics services (1=low to 5=high)</t>
-  </si>
-  <si>
-    <t>Agricultural nitrous oxide emissions (% of total)</t>
-  </si>
-  <si>
-    <t>Merchandise exports to low- and middle-income economies in Sub-Saharan Africa (% of total merchandise exports)</t>
-  </si>
-  <si>
-    <t>Electricity production from coal sources (% of total)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education (% of total working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Transport services (% of commercial service imports)</t>
-  </si>
-  <si>
-    <t>Transport services (% of commercial service exports)</t>
-  </si>
-  <si>
-    <t>Taxes on goods and services (% of revenue)</t>
-  </si>
-  <si>
-    <t>Logistics performance index: Overall (1=low to 5=high)</t>
-  </si>
-  <si>
-    <t>Changes in inventories (current US$)</t>
-  </si>
-  <si>
-    <t>Agricultural irrigated land (% of total agricultural land)</t>
-  </si>
-  <si>
-    <t>Interest payments (% of revenue)</t>
-  </si>
-  <si>
-    <t>Time required to register property (days)</t>
-  </si>
-  <si>
-    <t>Military expenditure (% of GDP)</t>
-  </si>
-  <si>
-    <t>Merchandise imports from low- and middle-income economies in Sub-Saharan Africa (% of total merchandise imports)</t>
-  </si>
-  <si>
-    <t>Taxes on goods and services (% value added of industry and services)</t>
-  </si>
-  <si>
-    <t>Travel services (% of service exports, BoP)</t>
-  </si>
-  <si>
-    <t>Social contributions (% of revenue)</t>
-  </si>
-  <si>
-    <t>Adjusted savings: net forest depletion (current US$)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education (% of total labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Total tax and contribution rate (% of profit)</t>
-  </si>
-  <si>
-    <t>Travel services (% of commercial service imports)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education (% of total labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Other greenhouse gas emissions (% change from 1990)</t>
-  </si>
-  <si>
-    <t>Logistics performance index: Quality of trade and transport-related infrastructure (1=low to 5=high)</t>
-  </si>
-  <si>
-    <t>Forest rents (% of GDP)</t>
-  </si>
-  <si>
-    <t>Chemicals (% of value added in manufacturing)</t>
-  </si>
-  <si>
-    <t>Logistics performance index: Efficiency of customs clearance process (1=low to 5=high)</t>
-  </si>
-  <si>
-    <t>Machinery and transport equipment (% of value added in manufacturing)</t>
-  </si>
-  <si>
-    <t>Manufactures exports (% of merchandise exports)</t>
-  </si>
-  <si>
-    <t>External health expenditure (% of current health expenditure)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education (% of total working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Other taxes payable by businesses (% of commercial profits)</t>
-  </si>
-  <si>
-    <t>General government final consumption expenditure (% of GDP)</t>
-  </si>
-  <si>
-    <t>Logistics performance index: Ability to track and trace consignments (1=low to 5=high)</t>
-  </si>
-  <si>
-    <t>Current account balance (BoP, current US$)</t>
-  </si>
-  <si>
-    <t>Market capitalization of listed domestic companies (% of GDP)</t>
-  </si>
-  <si>
-    <t>Merchandise exports to low- and middle-income economies in Middle East &amp; North Africa (% of total merchandise exports)</t>
-  </si>
-  <si>
-    <t>Merchandise imports from economies in the Arab World (% of total merchandise imports)</t>
-  </si>
-  <si>
-    <t>Profit tax (% of commercial profits)</t>
-  </si>
-  <si>
-    <t>Grants and other revenue (% of revenue)</t>
-  </si>
-  <si>
-    <t>Business extent of disclosure index (0=less disclosure to 10=more disclosure)</t>
-  </si>
-  <si>
-    <t>Insurance and financial services (% of service imports, BoP)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Time required to build a warehouse (days)</t>
-  </si>
-  <si>
-    <t>Procedures to build a warehouse (number)</t>
-  </si>
-  <si>
-    <t>Logistics performance index: Frequency with which shipments reach consignee within scheduled or expected time (1=low to 5=high)</t>
-  </si>
-  <si>
-    <t>High-technology exports (% of manufactured exports)</t>
-  </si>
-  <si>
-    <t>Trade in services (% of GDP)</t>
-  </si>
-  <si>
-    <t>Ores and metals exports (% of merchandise exports)</t>
-  </si>
-  <si>
-    <t>Tax revenue (% of GDP)</t>
-  </si>
-  <si>
-    <t>Fuel exports (% of merchandise exports)</t>
-  </si>
-  <si>
-    <t>Surface area (sq</t>
-  </si>
-  <si>
-    <t>Ores and metals imports (% of merchandise imports)</t>
-  </si>
-  <si>
-    <t>GHG net emissions/removals by LUCF (Mt of CO2 equivalent)</t>
-  </si>
-  <si>
-    <t>Other manufacturing (% of value added in manufacturing)</t>
-  </si>
-  <si>
-    <t>CO2 emissions from manufacturing industries and construction (% of total fuel combustion)</t>
-  </si>
-  <si>
-    <t>CO2 emissions from transport (% of total fuel combustion)</t>
-  </si>
-  <si>
-    <t>Labor tax and contributions (% of commercial profits)</t>
-  </si>
-  <si>
-    <t>Land area (sq</t>
-  </si>
-  <si>
-    <t>Travel services (% of service imports, BoP)</t>
-  </si>
-  <si>
-    <t>Households and NPISHs final consumption expenditure (% of GDP)</t>
-  </si>
-  <si>
-    <t>Travel services (% of commercial service exports)</t>
-  </si>
-  <si>
-    <t>Insurance and financial services (% of service exports, BoP)</t>
-  </si>
-  <si>
-    <t>Insurance and financial services (% of commercial service imports)</t>
-  </si>
-  <si>
-    <t>Insurance and financial services (% of commercial service exports)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Arms exports (SIPRI trend indicator values)</t>
-  </si>
-  <si>
-    <t>External balance on goods and services (% of GDP)</t>
-  </si>
-  <si>
-    <t>Manufactures imports (% of merchandise imports)</t>
-  </si>
-  <si>
-    <t>Electric power transmission and distribution losses (% of output)</t>
-  </si>
-  <si>
-    <t>Procedures to register property (number)</t>
-  </si>
-  <si>
-    <t>Arms imports (SIPRI trend indicator values)</t>
-  </si>
-  <si>
-    <t>Broad money to total reserves ratio</t>
-  </si>
-  <si>
-    <t>Diabetes prevalence (% of population ages 20 to 79)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Tax payments (number)</t>
-  </si>
-  <si>
-    <t>Electricity production from nuclear sources (% of total)</t>
-  </si>
-  <si>
-    <t>Merchandise exports to economies in the Arab World (% of total merchandise exports)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (constant 2018 US$)</t>
-  </si>
-  <si>
-    <t>Time required to enforce a contract (days)</t>
-  </si>
-  <si>
-    <t>Net capital account (BoP, current US$)</t>
-  </si>
-  <si>
-    <t>Natural gas rents (% of GDP)</t>
-  </si>
-  <si>
-    <t>Expenditure on tertiary education (% of government expenditure on education)</t>
-  </si>
-  <si>
-    <t>Gross fixed capital formation (% of GDP)</t>
   </si>
 </sst>
 </file>
@@ -2228,10 +1649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D404"/>
+  <dimension ref="A1:D213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A383" workbookViewId="0">
+      <selection activeCell="A214" sqref="A214:XFD404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2798,8 +2219,8 @@
       <c r="C40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>12</v>
+      <c r="D40" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3720,7 +3141,7 @@
         <v>21</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>12</v>
@@ -3728,7 +3149,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B107" s="3">
         <v>21</v>
@@ -3742,7 +3163,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B108" s="3">
         <v>21</v>
@@ -3756,7 +3177,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B109" s="3">
         <v>21</v>
@@ -3770,13 +3191,13 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B110" s="3">
         <v>21</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>12</v>
@@ -3784,7 +3205,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B111" s="3">
         <v>21</v>
@@ -3798,7 +3219,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B112" s="3">
         <v>21</v>
@@ -3812,7 +3233,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B113" s="3">
         <v>20</v>
@@ -3826,13 +3247,13 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B114" s="3">
         <v>20</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>12</v>
@@ -3840,7 +3261,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B115" s="3">
         <v>20</v>
@@ -3854,7 +3275,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B116" s="2">
         <v>20</v>
@@ -3868,7 +3289,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B117" s="3">
         <v>20</v>
@@ -3882,7 +3303,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B118" s="3">
         <v>20</v>
@@ -3896,7 +3317,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B119" s="3">
         <v>19</v>
@@ -3910,7 +3331,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B120" s="3">
         <v>19</v>
@@ -3924,7 +3345,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B121" s="3">
         <v>19</v>
@@ -3938,7 +3359,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B122" s="3">
         <v>19</v>
@@ -3952,7 +3373,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B123" s="3">
         <v>19</v>
@@ -3966,7 +3387,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B124" s="3">
         <v>19</v>
@@ -3980,7 +3401,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B125" s="2">
         <v>18</v>
@@ -3994,7 +3415,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B126" s="3">
         <v>18</v>
@@ -4008,7 +3429,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B127" s="3">
         <v>18</v>
@@ -4022,7 +3443,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B128" s="3">
         <v>18</v>
@@ -4036,7 +3457,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B129" s="3">
         <v>18</v>
@@ -4048,7 +3469,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B130" s="3">
         <v>18</v>
@@ -4062,7 +3483,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B131" s="3">
         <v>18</v>
@@ -4074,7 +3495,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B132" s="3">
         <v>18</v>
@@ -4088,7 +3509,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B133" s="3">
         <v>18</v>
@@ -4102,7 +3523,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B134" s="3">
         <v>18</v>
@@ -4116,7 +3537,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B135" s="3">
         <v>18</v>
@@ -4130,7 +3551,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B136" s="3">
         <v>18</v>
@@ -4144,7 +3565,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B137" s="3">
         <v>18</v>
@@ -4158,7 +3579,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B138" s="3">
         <v>17</v>
@@ -4172,7 +3593,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B139" s="3">
         <v>17</v>
@@ -4186,7 +3607,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B140" s="3">
         <v>17</v>
@@ -4200,7 +3621,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B141" s="3">
         <v>17</v>
@@ -4214,7 +3635,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B142" s="3">
         <v>17</v>
@@ -4228,7 +3649,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B143" s="3">
         <v>17</v>
@@ -4242,7 +3663,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B144" s="3">
         <v>17</v>
@@ -4256,7 +3677,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B145" s="3">
         <v>17</v>
@@ -4270,7 +3691,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B146" s="2">
         <v>17</v>
@@ -4284,7 +3705,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B147" s="3">
         <v>17</v>
@@ -4298,7 +3719,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B148" s="3">
         <v>17</v>
@@ -4312,7 +3733,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B149" s="3">
         <v>17</v>
@@ -4326,7 +3747,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B150" s="3">
         <v>16</v>
@@ -4340,13 +3761,13 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B151" s="3">
         <v>16</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>12</v>
@@ -4354,7 +3775,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B152" s="3">
         <v>16</v>
@@ -4368,13 +3789,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B153" s="3">
         <v>16</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>12</v>
@@ -4382,13 +3803,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B154" s="2">
         <v>16</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>8</v>
@@ -4396,7 +3817,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B155" s="2">
         <v>16</v>
@@ -4410,7 +3831,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B156" s="3">
         <v>16</v>
@@ -4424,7 +3845,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B157" s="3">
         <v>15</v>
@@ -4436,13 +3857,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B158" s="3">
         <v>15</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>12</v>
@@ -4450,7 +3871,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B159" s="3">
         <v>15</v>
@@ -4464,7 +3885,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B160" s="3">
         <v>15</v>
@@ -4478,7 +3899,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B161" s="3">
         <v>15</v>
@@ -4492,7 +3913,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B162" s="3">
         <v>15</v>
@@ -4506,7 +3927,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B163" s="3">
         <v>15</v>
@@ -4520,7 +3941,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B164" s="3">
         <v>15</v>
@@ -4534,7 +3955,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B165" s="3">
         <v>14</v>
@@ -4548,7 +3969,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B166" s="3">
         <v>14</v>
@@ -4562,7 +3983,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B167" s="2">
         <v>14</v>
@@ -4576,7 +3997,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B168" s="3">
         <v>13</v>
@@ -4590,7 +4011,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B169" s="3">
         <v>13</v>
@@ -4604,13 +4025,13 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B170" s="2">
         <v>13</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>8</v>
@@ -4618,7 +4039,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B171" s="3">
         <v>13</v>
@@ -4632,7 +4053,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B172" s="3">
         <v>13</v>
@@ -4646,7 +4067,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B173" s="3">
         <v>13</v>
@@ -4660,13 +4081,13 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B174" s="3">
         <v>13</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>12</v>
@@ -4674,13 +4095,13 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B175" s="3">
         <v>13</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>12</v>
@@ -4688,13 +4109,13 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B176" s="3">
         <v>13</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>12</v>
@@ -4702,7 +4123,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B177" s="3">
         <v>13</v>
@@ -4716,7 +4137,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B178" s="3">
         <v>13</v>
@@ -4730,13 +4151,13 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B179" s="2">
         <v>13</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>8</v>
@@ -4744,7 +4165,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B180" s="3">
         <v>13</v>
@@ -4758,13 +4179,13 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B181" s="3">
         <v>13</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>12</v>
@@ -4772,7 +4193,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B182" s="3">
         <v>13</v>
@@ -4786,7 +4207,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B183" s="3">
         <v>12</v>
@@ -4800,13 +4221,13 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B184" s="3">
         <v>12</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>12</v>
@@ -4814,7 +4235,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B185" s="3">
         <v>12</v>
@@ -4828,7 +4249,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B186" s="3">
         <v>12</v>
@@ -4842,7 +4263,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B187" s="3">
         <v>12</v>
@@ -4856,7 +4277,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B188" s="3">
         <v>12</v>
@@ -4870,7 +4291,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B189" s="3">
         <v>12</v>
@@ -4884,13 +4305,13 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B190" s="3">
         <v>12</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>12</v>
@@ -4898,7 +4319,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B191" s="3">
         <v>12</v>
@@ -4912,7 +4333,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B192" s="3">
         <v>12</v>
@@ -4926,7 +4347,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B193" s="3">
         <v>12</v>
@@ -4940,7 +4361,7 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B194" s="3">
         <v>12</v>
@@ -4954,13 +4375,13 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B195" s="3">
         <v>12</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>12</v>
@@ -4968,7 +4389,7 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B196" s="3">
         <v>12</v>
@@ -4982,13 +4403,13 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B197" s="3">
         <v>12</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>12</v>
@@ -4996,7 +4417,7 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B198" s="3">
         <v>12</v>
@@ -5010,7 +4431,7 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B199" s="3">
         <v>12</v>
@@ -5024,7 +4445,7 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B200" s="3">
         <v>12</v>
@@ -5038,13 +4459,13 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B201" s="3">
         <v>11</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>12</v>
@@ -5052,7 +4473,7 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B202" s="3">
         <v>11</v>
@@ -5066,13 +4487,13 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B203" s="3">
         <v>11</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>12</v>
@@ -5080,7 +4501,7 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B204" s="3">
         <v>11</v>
@@ -5094,7 +4515,7 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B205" s="3">
         <v>11</v>
@@ -5108,7 +4529,7 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B206" s="2">
         <v>11</v>
@@ -5122,7 +4543,7 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B207" s="3">
         <v>11</v>
@@ -5136,7 +4557,7 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B208" s="3">
         <v>11</v>
@@ -5150,13 +4571,13 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B209" s="3">
         <v>11</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>12</v>
@@ -5164,7 +4585,7 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B210" s="3">
         <v>11</v>
@@ -5178,7 +4599,7 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B211" s="3">
         <v>11</v>
@@ -5192,13 +4613,13 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B212" s="3">
         <v>11</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>12</v>
@@ -5206,7 +4627,7 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B213" s="3">
         <v>11</v>
@@ -5216,1534 +4637,6 @@
       </c>
       <c r="D213" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" t="s">
-        <v>241</v>
-      </c>
-      <c r="B214">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215" t="s">
-        <v>242</v>
-      </c>
-      <c r="B215">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216" t="s">
-        <v>243</v>
-      </c>
-      <c r="B216">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" t="s">
-        <v>244</v>
-      </c>
-      <c r="B217">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" t="s">
-        <v>245</v>
-      </c>
-      <c r="B218">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" t="s">
-        <v>246</v>
-      </c>
-      <c r="B219">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" t="s">
-        <v>247</v>
-      </c>
-      <c r="B220">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221" t="s">
-        <v>248</v>
-      </c>
-      <c r="B221">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" t="s">
-        <v>249</v>
-      </c>
-      <c r="B222">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" t="s">
-        <v>250</v>
-      </c>
-      <c r="B223">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224" t="s">
-        <v>251</v>
-      </c>
-      <c r="B224">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" t="s">
-        <v>252</v>
-      </c>
-      <c r="B225">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" t="s">
-        <v>253</v>
-      </c>
-      <c r="B226">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" t="s">
-        <v>254</v>
-      </c>
-      <c r="B227">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" t="s">
-        <v>255</v>
-      </c>
-      <c r="B228">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" t="s">
-        <v>256</v>
-      </c>
-      <c r="B229">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" t="s">
-        <v>257</v>
-      </c>
-      <c r="B230">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" t="s">
-        <v>258</v>
-      </c>
-      <c r="B231">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" t="s">
-        <v>259</v>
-      </c>
-      <c r="B232">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" t="s">
-        <v>260</v>
-      </c>
-      <c r="B233">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" t="s">
-        <v>261</v>
-      </c>
-      <c r="B234">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" t="s">
-        <v>262</v>
-      </c>
-      <c r="B235">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" t="s">
-        <v>263</v>
-      </c>
-      <c r="B236">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" t="s">
-        <v>264</v>
-      </c>
-      <c r="B237">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" t="s">
-        <v>265</v>
-      </c>
-      <c r="B238">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" t="s">
-        <v>266</v>
-      </c>
-      <c r="B239">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" t="s">
-        <v>267</v>
-      </c>
-      <c r="B240">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" t="s">
-        <v>268</v>
-      </c>
-      <c r="B241">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" t="s">
-        <v>269</v>
-      </c>
-      <c r="B242">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" t="s">
-        <v>270</v>
-      </c>
-      <c r="B243">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" t="s">
-        <v>271</v>
-      </c>
-      <c r="B244">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" t="s">
-        <v>272</v>
-      </c>
-      <c r="B245">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" t="s">
-        <v>273</v>
-      </c>
-      <c r="B246">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" t="s">
-        <v>274</v>
-      </c>
-      <c r="B247">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248" t="s">
-        <v>275</v>
-      </c>
-      <c r="B248">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" t="s">
-        <v>276</v>
-      </c>
-      <c r="B249">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" t="s">
-        <v>277</v>
-      </c>
-      <c r="B250">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" t="s">
-        <v>278</v>
-      </c>
-      <c r="B251">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" t="s">
-        <v>279</v>
-      </c>
-      <c r="B252">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" t="s">
-        <v>280</v>
-      </c>
-      <c r="B253">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" t="s">
-        <v>281</v>
-      </c>
-      <c r="B254">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" t="s">
-        <v>282</v>
-      </c>
-      <c r="B255">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" t="s">
-        <v>283</v>
-      </c>
-      <c r="B256">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" t="s">
-        <v>284</v>
-      </c>
-      <c r="B257">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" t="s">
-        <v>285</v>
-      </c>
-      <c r="B258">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" t="s">
-        <v>286</v>
-      </c>
-      <c r="B259">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" t="s">
-        <v>287</v>
-      </c>
-      <c r="B260">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" t="s">
-        <v>288</v>
-      </c>
-      <c r="B261">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" t="s">
-        <v>289</v>
-      </c>
-      <c r="B262">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" t="s">
-        <v>290</v>
-      </c>
-      <c r="B263">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" t="s">
-        <v>291</v>
-      </c>
-      <c r="B264">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" t="s">
-        <v>292</v>
-      </c>
-      <c r="B265">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" t="s">
-        <v>293</v>
-      </c>
-      <c r="B266">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" t="s">
-        <v>294</v>
-      </c>
-      <c r="B267">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" t="s">
-        <v>295</v>
-      </c>
-      <c r="B268">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" t="s">
-        <v>296</v>
-      </c>
-      <c r="B269">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" t="s">
-        <v>297</v>
-      </c>
-      <c r="B270">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" t="s">
-        <v>298</v>
-      </c>
-      <c r="B271">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" t="s">
-        <v>299</v>
-      </c>
-      <c r="B272">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" t="s">
-        <v>300</v>
-      </c>
-      <c r="B273">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" t="s">
-        <v>301</v>
-      </c>
-      <c r="B274">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" t="s">
-        <v>302</v>
-      </c>
-      <c r="B275">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" t="s">
-        <v>303</v>
-      </c>
-      <c r="B276">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" t="s">
-        <v>304</v>
-      </c>
-      <c r="B277">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" t="s">
-        <v>305</v>
-      </c>
-      <c r="B278">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" t="s">
-        <v>306</v>
-      </c>
-      <c r="B279">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" t="s">
-        <v>307</v>
-      </c>
-      <c r="B280">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" t="s">
-        <v>308</v>
-      </c>
-      <c r="B281">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" t="s">
-        <v>309</v>
-      </c>
-      <c r="B282">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" t="s">
-        <v>310</v>
-      </c>
-      <c r="B283">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284" t="s">
-        <v>311</v>
-      </c>
-      <c r="B284">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285" t="s">
-        <v>312</v>
-      </c>
-      <c r="B285">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
-      <c r="A286" t="s">
-        <v>313</v>
-      </c>
-      <c r="B286">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" t="s">
-        <v>314</v>
-      </c>
-      <c r="B287">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" t="s">
-        <v>315</v>
-      </c>
-      <c r="B288">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" t="s">
-        <v>316</v>
-      </c>
-      <c r="B289">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
-      <c r="A290" t="s">
-        <v>317</v>
-      </c>
-      <c r="B290">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
-      <c r="A291" t="s">
-        <v>318</v>
-      </c>
-      <c r="B291">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
-      <c r="A292" t="s">
-        <v>319</v>
-      </c>
-      <c r="B292">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
-      <c r="A293" t="s">
-        <v>320</v>
-      </c>
-      <c r="B293">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
-      <c r="A294" t="s">
-        <v>321</v>
-      </c>
-      <c r="B294">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
-      <c r="A295" t="s">
-        <v>322</v>
-      </c>
-      <c r="B295">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
-      <c r="A296" t="s">
-        <v>323</v>
-      </c>
-      <c r="B296">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
-      <c r="A297" t="s">
-        <v>324</v>
-      </c>
-      <c r="B297">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
-      <c r="A298" t="s">
-        <v>325</v>
-      </c>
-      <c r="B298">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
-      <c r="A299" t="s">
-        <v>326</v>
-      </c>
-      <c r="B299">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
-      <c r="A300" t="s">
-        <v>327</v>
-      </c>
-      <c r="B300">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
-      <c r="A301" t="s">
-        <v>328</v>
-      </c>
-      <c r="B301">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="A302" t="s">
-        <v>329</v>
-      </c>
-      <c r="B302">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
-      <c r="A303" t="s">
-        <v>330</v>
-      </c>
-      <c r="B303">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="A304" t="s">
-        <v>331</v>
-      </c>
-      <c r="B304">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" t="s">
-        <v>332</v>
-      </c>
-      <c r="B305">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2">
-      <c r="A306" t="s">
-        <v>333</v>
-      </c>
-      <c r="B306">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
-      <c r="A307" t="s">
-        <v>334</v>
-      </c>
-      <c r="B307">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2">
-      <c r="A308" t="s">
-        <v>335</v>
-      </c>
-      <c r="B308">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2">
-      <c r="A309" t="s">
-        <v>336</v>
-      </c>
-      <c r="B309">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
-      <c r="A310" t="s">
-        <v>337</v>
-      </c>
-      <c r="B310">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
-      <c r="A311" t="s">
-        <v>338</v>
-      </c>
-      <c r="B311">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2">
-      <c r="A312" t="s">
-        <v>339</v>
-      </c>
-      <c r="B312">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
-      <c r="A313" t="s">
-        <v>340</v>
-      </c>
-      <c r="B313">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2">
-      <c r="A314" t="s">
-        <v>341</v>
-      </c>
-      <c r="B314">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2">
-      <c r="A315" t="s">
-        <v>342</v>
-      </c>
-      <c r="B315">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2">
-      <c r="A316" t="s">
-        <v>343</v>
-      </c>
-      <c r="B316">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
-      <c r="A317" t="s">
-        <v>344</v>
-      </c>
-      <c r="B317">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="A318" t="s">
-        <v>345</v>
-      </c>
-      <c r="B318">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2">
-      <c r="A319" t="s">
-        <v>346</v>
-      </c>
-      <c r="B319">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2">
-      <c r="A320" t="s">
-        <v>347</v>
-      </c>
-      <c r="B320">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2">
-      <c r="A321" t="s">
-        <v>348</v>
-      </c>
-      <c r="B321">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2">
-      <c r="A322" t="s">
-        <v>349</v>
-      </c>
-      <c r="B322">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2">
-      <c r="A323" t="s">
-        <v>350</v>
-      </c>
-      <c r="B323">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2">
-      <c r="A324" t="s">
-        <v>351</v>
-      </c>
-      <c r="B324">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2">
-      <c r="A325" t="s">
-        <v>352</v>
-      </c>
-      <c r="B325">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2">
-      <c r="A326" t="s">
-        <v>353</v>
-      </c>
-      <c r="B326">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2">
-      <c r="A327" t="s">
-        <v>354</v>
-      </c>
-      <c r="B327">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2">
-      <c r="A328" t="s">
-        <v>355</v>
-      </c>
-      <c r="B328">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2">
-      <c r="A329" t="s">
-        <v>356</v>
-      </c>
-      <c r="B329">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2">
-      <c r="A330" t="s">
-        <v>357</v>
-      </c>
-      <c r="B330">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2">
-      <c r="A331" t="s">
-        <v>358</v>
-      </c>
-      <c r="B331">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2">
-      <c r="A332" t="s">
-        <v>359</v>
-      </c>
-      <c r="B332">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2">
-      <c r="A333" t="s">
-        <v>360</v>
-      </c>
-      <c r="B333">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2">
-      <c r="A334" t="s">
-        <v>361</v>
-      </c>
-      <c r="B334">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2">
-      <c r="A335" t="s">
-        <v>362</v>
-      </c>
-      <c r="B335">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2">
-      <c r="A336" t="s">
-        <v>363</v>
-      </c>
-      <c r="B336">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2">
-      <c r="A337" t="s">
-        <v>364</v>
-      </c>
-      <c r="B337">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2">
-      <c r="A338" t="s">
-        <v>365</v>
-      </c>
-      <c r="B338">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2">
-      <c r="A339" t="s">
-        <v>366</v>
-      </c>
-      <c r="B339">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2">
-      <c r="A340" t="s">
-        <v>367</v>
-      </c>
-      <c r="B340">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2">
-      <c r="A341" t="s">
-        <v>368</v>
-      </c>
-      <c r="B341">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2">
-      <c r="A342" t="s">
-        <v>369</v>
-      </c>
-      <c r="B342">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2">
-      <c r="A343" t="s">
-        <v>370</v>
-      </c>
-      <c r="B343">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2">
-      <c r="A344" t="s">
-        <v>371</v>
-      </c>
-      <c r="B344">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2">
-      <c r="A345" t="s">
-        <v>372</v>
-      </c>
-      <c r="B345">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2">
-      <c r="A346" t="s">
-        <v>373</v>
-      </c>
-      <c r="B346">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2">
-      <c r="A347" t="s">
-        <v>374</v>
-      </c>
-      <c r="B347">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2">
-      <c r="A348" t="s">
-        <v>375</v>
-      </c>
-      <c r="B348">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2">
-      <c r="A349" t="s">
-        <v>376</v>
-      </c>
-      <c r="B349">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2">
-      <c r="A350" t="s">
-        <v>377</v>
-      </c>
-      <c r="B350">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2">
-      <c r="A351" t="s">
-        <v>378</v>
-      </c>
-      <c r="B351">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2">
-      <c r="A352" t="s">
-        <v>379</v>
-      </c>
-      <c r="B352">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2">
-      <c r="A353" t="s">
-        <v>380</v>
-      </c>
-      <c r="B353">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2">
-      <c r="A354" t="s">
-        <v>381</v>
-      </c>
-      <c r="B354">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2">
-      <c r="A355" t="s">
-        <v>382</v>
-      </c>
-      <c r="B355">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2">
-      <c r="A356" t="s">
-        <v>383</v>
-      </c>
-      <c r="B356">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2">
-      <c r="A357" t="s">
-        <v>384</v>
-      </c>
-      <c r="B357">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2">
-      <c r="A358" t="s">
-        <v>385</v>
-      </c>
-      <c r="B358">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2">
-      <c r="A359" t="s">
-        <v>386</v>
-      </c>
-      <c r="B359">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2">
-      <c r="A360" t="s">
-        <v>387</v>
-      </c>
-      <c r="B360">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2">
-      <c r="A361" t="s">
-        <v>388</v>
-      </c>
-      <c r="B361">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2">
-      <c r="A362" t="s">
-        <v>389</v>
-      </c>
-      <c r="B362">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2">
-      <c r="A363" t="s">
-        <v>390</v>
-      </c>
-      <c r="B363">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2">
-      <c r="A364" t="s">
-        <v>391</v>
-      </c>
-      <c r="B364">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2">
-      <c r="A365" t="s">
-        <v>392</v>
-      </c>
-      <c r="B365">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2">
-      <c r="A366" t="s">
-        <v>393</v>
-      </c>
-      <c r="B366">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2">
-      <c r="A367" t="s">
-        <v>394</v>
-      </c>
-      <c r="B367">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2">
-      <c r="A368" t="s">
-        <v>395</v>
-      </c>
-      <c r="B368">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2">
-      <c r="A369" t="s">
-        <v>396</v>
-      </c>
-      <c r="B369">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2">
-      <c r="A370" t="s">
-        <v>397</v>
-      </c>
-      <c r="B370">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2">
-      <c r="A371" t="s">
-        <v>398</v>
-      </c>
-      <c r="B371">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2">
-      <c r="A372" t="s">
-        <v>399</v>
-      </c>
-      <c r="B372">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2">
-      <c r="A373" t="s">
-        <v>400</v>
-      </c>
-      <c r="B373">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2">
-      <c r="A374" t="s">
-        <v>401</v>
-      </c>
-      <c r="B374">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2">
-      <c r="A375" t="s">
-        <v>402</v>
-      </c>
-      <c r="B375">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2">
-      <c r="A376" t="s">
-        <v>403</v>
-      </c>
-      <c r="B376">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2">
-      <c r="A377" t="s">
-        <v>404</v>
-      </c>
-      <c r="B377">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2">
-      <c r="A378" t="s">
-        <v>405</v>
-      </c>
-      <c r="B378">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2">
-      <c r="A379" t="s">
-        <v>406</v>
-      </c>
-      <c r="B379">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2">
-      <c r="A380" t="s">
-        <v>407</v>
-      </c>
-      <c r="B380">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2">
-      <c r="A381" t="s">
-        <v>408</v>
-      </c>
-      <c r="B381">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2">
-      <c r="A382" t="s">
-        <v>409</v>
-      </c>
-      <c r="B382">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2">
-      <c r="A383" t="s">
-        <v>410</v>
-      </c>
-      <c r="B383">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2">
-      <c r="A384" t="s">
-        <v>411</v>
-      </c>
-      <c r="B384">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2">
-      <c r="A385" t="s">
-        <v>412</v>
-      </c>
-      <c r="B385">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2">
-      <c r="A386" t="s">
-        <v>413</v>
-      </c>
-      <c r="B386">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2">
-      <c r="A387" t="s">
-        <v>414</v>
-      </c>
-      <c r="B387">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2">
-      <c r="A388" t="s">
-        <v>415</v>
-      </c>
-      <c r="B388">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2">
-      <c r="A389" t="s">
-        <v>416</v>
-      </c>
-      <c r="B389">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2">
-      <c r="A390" t="s">
-        <v>417</v>
-      </c>
-      <c r="B390">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2">
-      <c r="A391" t="s">
-        <v>418</v>
-      </c>
-      <c r="B391">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2">
-      <c r="A392" t="s">
-        <v>419</v>
-      </c>
-      <c r="B392">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2">
-      <c r="A393" t="s">
-        <v>420</v>
-      </c>
-      <c r="B393">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2">
-      <c r="A394" t="s">
-        <v>421</v>
-      </c>
-      <c r="B394">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2">
-      <c r="A395" t="s">
-        <v>422</v>
-      </c>
-      <c r="B395">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2">
-      <c r="A396" t="s">
-        <v>423</v>
-      </c>
-      <c r="B396">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2">
-      <c r="A397" t="s">
-        <v>424</v>
-      </c>
-      <c r="B397">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2">
-      <c r="A398" t="s">
-        <v>425</v>
-      </c>
-      <c r="B398">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2">
-      <c r="A399" t="s">
-        <v>426</v>
-      </c>
-      <c r="B399">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2">
-      <c r="A400" t="s">
-        <v>427</v>
-      </c>
-      <c r="B400">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2">
-      <c r="A401" t="s">
-        <v>428</v>
-      </c>
-      <c r="B401">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2">
-      <c r="A402" t="s">
-        <v>429</v>
-      </c>
-      <c r="B402">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2">
-      <c r="A403" t="s">
-        <v>430</v>
-      </c>
-      <c r="B403">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2">
-      <c r="A404" t="s">
-        <v>431</v>
-      </c>
-      <c r="B404">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
